--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -442,8 +442,8 @@
   <cols>
     <col width="26.5" customWidth="1" min="1" max="1"/>
     <col width="166.5" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="62" customWidth="1" min="4" max="4"/>
+    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -466,12 +466,12 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>missingValues</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>primaryKey</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>missingValues</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,18 @@
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id</t>
         </is>
       </c>
     </row>
@@ -529,17 +530,18 @@
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id</t>
         </is>
       </c>
     </row>
@@ -563,18 +565,19 @@
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>jdc_person_id,
-visit_number</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>jdc_person_id,
+visit_number</t>
         </is>
       </c>
     </row>
@@ -598,18 +601,19 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>jdc_person_id,
-visit_number</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Don't know,
 Refused,
 Left blank,
 Legitimately skipped,
+Not collected,
 Missing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jdc_person_id,
+visit_number</t>
         </is>
       </c>
     </row>
@@ -624,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:T355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -645,12 +649,14 @@
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="41" customWidth="1" min="11" max="11"/>
     <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="259" customWidth="1" min="13" max="13"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="184" customWidth="1" min="17" max="17"/>
-    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="158" customWidth="1" min="13" max="13"/>
+    <col width="259" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="184" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,30 +722,40 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
+          <t>custom.jcoin:note</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
           <t>custom.jcoin:notes</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>schema</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>constraints.minimum</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>custom.jcoin:source</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>constraints.maximum</t>
         </is>
@@ -781,15 +797,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -837,15 +855,17 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -893,15 +913,17 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -949,15 +971,17 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -982,14 +1006,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A summary of the current status where client (participant) is in study</t>
+          <t xml:space="preserve">A summary of the current status where client (participant) is in
+study. 
+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>On study|Dropped out|Withdrawn by investigator|Completed study|Unknown</t>
+          <t>On study|Dropped out/lost to follow up|Withdrawn by investigator|Re-incarcerated|Deceased|Completed study|Unknown</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -1002,16 +1028,22 @@
           <t>current_study_status</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Re-incarcerated" = re-incarceration leading to dropout or withdrawal and "Withdrawn by investigator" = withdrawal by investigator for other reasons not listed</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,15 +1083,17 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1103,15 +1137,17 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1154,21 +1190,23 @@
           <t>o2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
  False if not 'Male' and not 'Transfgender' else True</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1211,20 +1249,22 @@
           <t>d4b</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1274,15 +1314,17 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1332,15 +1374,17 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1390,15 +1434,17 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1448,15 +1494,17 @@
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1506,15 +1554,17 @@
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1564,15 +1614,17 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1614,15 +1666,17 @@
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1664,15 +1718,17 @@
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1722,15 +1778,17 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1779,15 +1837,17 @@
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1831,15 +1891,17 @@
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1879,15 +1941,17 @@
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1930,20 +1994,22 @@
           <t>d4d</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1987,15 +2053,17 @@
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2039,15 +2107,17 @@
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2091,15 +2161,17 @@
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2139,15 +2211,17 @@
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2187,15 +2261,17 @@
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2243,15 +2319,17 @@
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2291,15 +2369,17 @@
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2347,15 +2427,17 @@
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2395,15 +2477,17 @@
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2443,15 +2527,17 @@
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2491,15 +2577,17 @@
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2539,15 +2627,17 @@
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2587,15 +2677,17 @@
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2635,15 +2727,17 @@
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2683,15 +2777,17 @@
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2731,15 +2827,17 @@
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
         <is>
           <t>table-schema-baseline</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2773,10 +2871,12 @@
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2785,15 +2885,17 @@
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2831,15 +2933,17 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2887,15 +2991,17 @@
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2937,15 +3043,17 @@
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2991,15 +3099,17 @@
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3039,15 +3149,17 @@
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3091,15 +3203,17 @@
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3142,21 +3256,23 @@
           <t>o2</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.] 
  False if not 'Male' and not 'Transgender' else True</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3199,20 +3315,22 @@
           <t>d4b</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3260,15 +3378,17 @@
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3316,15 +3436,17 @@
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3372,15 +3494,17 @@
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3428,15 +3552,17 @@
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3484,15 +3610,17 @@
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3540,15 +3668,17 @@
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3590,15 +3720,17 @@
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3640,15 +3772,17 @@
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3697,15 +3831,17 @@
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3753,15 +3889,17 @@
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3805,15 +3943,17 @@
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3853,15 +3993,17 @@
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3904,20 +4046,22 @@
           <t>d4d</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3961,15 +4105,17 @@
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4013,15 +4159,17 @@
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4065,15 +4213,17 @@
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4113,15 +4263,17 @@
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4161,15 +4313,17 @@
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
         <is>
           <t>table-schema-staff-baseline</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4203,10 +4357,12 @@
       <c r="I67" t="b">
         <v>1</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4215,15 +4371,17 @@
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4265,17 +4423,19 @@
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4300,7 +4460,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>This is the date of the visit (ie time point of survey administration) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
+          <t xml:space="preserve">This is the date of the visit (ie time point of survey administration)
+after shifting by a random number 182 days before or 182 days after the actual
+visit date. The shifting is done on the individual level which retains the time
+interval between visits (and allows calculations of days between time points
+or other date fields which are shifted by the same number of days). To avoid
+issues with type conversion errors, the date is of type integer
+</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4313,23 +4479,29 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>shifted_visit_dt</t>
+          <t>shifted_visit_date</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>20220101|20240531</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>%Y%m%d</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4375,15 +4547,17 @@
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4427,20 +4601,22 @@
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-7</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4484,20 +4660,22 @@
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-8</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4541,20 +4719,22 @@
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-9</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4598,20 +4778,22 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-10</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4655,20 +4837,22 @@
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-11</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4712,20 +4896,22 @@
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-12</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4769,20 +4955,22 @@
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-13</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4826,20 +5014,22 @@
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-14</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4883,20 +5073,22 @@
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-15</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4940,20 +5132,22 @@
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-16</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4997,20 +5191,22 @@
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-17</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5054,20 +5250,22 @@
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr">
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
         <is>
           <t>Shea et al., 2014  - Organizational Readiness for Implementing Change: A psychometric assessment of a 
 new measure.  Implementation Science 9:7. https://doi.org/10.1186/1748-5908-9-18</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5111,19 +5309,21 @@
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5167,19 +5367,21 @@
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5223,19 +5425,21 @@
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5279,19 +5483,21 @@
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
         <is>
           <t>TCU Survey of Organizational Functioning (Stress Measure)  - source document available at: http://ibr.tcu.edu/wp-content/uploads/2013/06/SOF-sg.pdf</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5335,15 +5541,17 @@
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5387,15 +5595,17 @@
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5439,15 +5649,17 @@
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5491,15 +5703,17 @@
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5543,15 +5757,17 @@
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5595,15 +5811,17 @@
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5647,15 +5865,17 @@
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr">
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5699,15 +5919,17 @@
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5751,15 +5973,17 @@
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5803,15 +6027,17 @@
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5855,15 +6081,17 @@
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5907,15 +6135,17 @@
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr">
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5959,15 +6189,17 @@
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr">
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6011,15 +6243,17 @@
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr">
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6063,15 +6297,17 @@
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6115,15 +6351,17 @@
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr">
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6167,15 +6405,17 @@
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr">
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6219,15 +6459,17 @@
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr">
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6271,15 +6513,17 @@
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr">
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6323,15 +6567,17 @@
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr">
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6375,15 +6621,17 @@
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6427,15 +6675,17 @@
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr">
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6479,15 +6729,17 @@
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr">
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6531,15 +6783,17 @@
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr">
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6583,15 +6837,17 @@
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr">
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6635,15 +6891,17 @@
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr">
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6687,15 +6945,17 @@
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr">
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
         <is>
           <t>table-schema-staff-time-points</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6729,10 +6989,12 @@
       <c r="I114" t="b">
         <v>1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6741,15 +7003,17 @@
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6791,17 +7055,19 @@
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O115" t="n">
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6847,15 +7113,17 @@
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6897,19 +7165,21 @@
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr">
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
         <is>
           <t>%Y%m%d</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6955,15 +7225,17 @@
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7006,20 +7278,22 @@
           <t>s1a</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7062,20 +7336,22 @@
           <t>s1b</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7118,20 +7394,22 @@
           <t>s1c</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7174,20 +7452,22 @@
           <t>s1d</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7230,20 +7510,22 @@
           <t>s1e</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7286,20 +7568,22 @@
           <t>s2a</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7342,20 +7626,22 @@
           <t>s2b</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7398,20 +7684,22 @@
           <t>s2c</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7450,20 +7738,22 @@
           <t>s3a</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7502,20 +7792,22 @@
           <t>s3b</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7554,20 +7846,22 @@
           <t>s3c</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7606,20 +7900,22 @@
           <t>s3d</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7659,15 +7955,17 @@
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7707,15 +8005,17 @@
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7755,15 +8055,17 @@
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7803,15 +8105,17 @@
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7851,15 +8155,17 @@
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7899,15 +8205,17 @@
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7947,15 +8255,17 @@
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7995,15 +8305,17 @@
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8043,15 +8355,17 @@
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8091,15 +8405,17 @@
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8139,15 +8455,17 @@
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8187,15 +8505,17 @@
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8235,15 +8555,17 @@
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8283,15 +8605,17 @@
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8331,15 +8655,17 @@
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8379,15 +8705,17 @@
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8427,15 +8755,17 @@
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8475,15 +8805,17 @@
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8523,15 +8855,17 @@
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8571,15 +8905,17 @@
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8618,20 +8954,22 @@
           <t>j1</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
         <is>
           <t>[IF 0, GO TO J2]</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8670,20 +9008,22 @@
           <t>j1a1</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8722,20 +9062,22 @@
           <t>j1a2</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8774,20 +9116,22 @@
           <t>j1a3</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8826,20 +9170,22 @@
           <t>j1a4</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8878,20 +9224,22 @@
           <t>j1a5</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8930,20 +9278,22 @@
           <t>j1a6</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8982,20 +9332,22 @@
           <t>j1a7</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9034,20 +9386,22 @@
           <t>j1a8</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9086,20 +9440,22 @@
           <t>j1a9</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9138,20 +9494,22 @@
           <t>j1a10</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9190,20 +9548,22 @@
           <t>j1a11</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,20 +9602,22 @@
           <t>j1a12</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9294,20 +9656,22 @@
           <t>j1a13</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9346,20 +9710,22 @@
           <t>j1a14</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9398,20 +9764,22 @@
           <t>j1a15</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9450,20 +9818,22 @@
           <t>j1a16</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9502,20 +9872,22 @@
           <t>j1a17</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9554,20 +9926,22 @@
           <t>j1a18</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9606,20 +9980,22 @@
           <t>j1a19</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9658,20 +10034,22 @@
           <t>j1a99</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9711,15 +10089,17 @@
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9759,15 +10139,17 @@
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9807,15 +10189,17 @@
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9855,15 +10239,17 @@
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9903,15 +10289,17 @@
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9951,15 +10339,17 @@
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9999,15 +10389,17 @@
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10047,15 +10439,17 @@
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10095,15 +10489,17 @@
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10143,15 +10539,17 @@
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10191,15 +10589,17 @@
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10239,15 +10639,17 @@
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10287,15 +10689,17 @@
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10335,15 +10739,17 @@
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10383,15 +10789,17 @@
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10431,15 +10839,17 @@
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10479,15 +10889,17 @@
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10527,15 +10939,17 @@
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10575,15 +10989,17 @@
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10623,15 +11039,17 @@
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10671,15 +11089,17 @@
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10719,15 +11139,17 @@
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10767,15 +11189,17 @@
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10815,15 +11239,17 @@
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10863,15 +11289,17 @@
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10918,20 +11346,22 @@
           <t>j3e</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
         <is>
           <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10971,15 +11401,17 @@
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11019,15 +11451,17 @@
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11067,15 +11501,17 @@
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11115,15 +11551,17 @@
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11163,15 +11601,17 @@
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11211,15 +11651,17 @@
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11259,15 +11701,17 @@
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11307,15 +11751,17 @@
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11354,20 +11800,22 @@
           <t>j5c_years</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11406,20 +11854,22 @@
           <t>j5c_months</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11459,15 +11909,17 @@
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11507,15 +11959,17 @@
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11555,15 +12009,17 @@
         </is>
       </c>
       <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11603,15 +12059,17 @@
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11651,15 +12109,17 @@
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11699,15 +12159,17 @@
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11747,15 +12209,17 @@
         </is>
       </c>
       <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11795,15 +12259,17 @@
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11843,15 +12309,17 @@
         </is>
       </c>
       <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11891,15 +12359,17 @@
         </is>
       </c>
       <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11947,15 +12417,17 @@
         </is>
       </c>
       <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12003,15 +12475,17 @@
         </is>
       </c>
       <c r="M219" t="inlineStr"/>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12059,15 +12533,17 @@
         </is>
       </c>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12115,15 +12591,17 @@
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12163,15 +12641,17 @@
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr"/>
       <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12211,15 +12691,17 @@
         </is>
       </c>
       <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12259,15 +12741,17 @@
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12307,15 +12791,17 @@
         </is>
       </c>
       <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr"/>
       <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12355,15 +12841,17 @@
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P226" t="inlineStr"/>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12403,15 +12891,17 @@
         </is>
       </c>
       <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12451,15 +12941,17 @@
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12499,15 +12991,17 @@
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12547,15 +13041,17 @@
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12595,15 +13091,17 @@
         </is>
       </c>
       <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12643,15 +13141,17 @@
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12691,15 +13191,17 @@
         </is>
       </c>
       <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12739,15 +13241,17 @@
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12787,15 +13291,17 @@
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr"/>
       <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12843,15 +13349,17 @@
         </is>
       </c>
       <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr"/>
       <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12895,15 +13403,17 @@
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12947,15 +13457,17 @@
         </is>
       </c>
       <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12999,15 +13511,17 @@
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr"/>
       <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13051,15 +13565,17 @@
         </is>
       </c>
       <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr"/>
       <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13103,15 +13619,17 @@
         </is>
       </c>
       <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
       <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13159,15 +13677,17 @@
         </is>
       </c>
       <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13215,15 +13735,17 @@
         </is>
       </c>
       <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13271,15 +13793,17 @@
         </is>
       </c>
       <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="inlineStr"/>
       <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13327,15 +13851,17 @@
         </is>
       </c>
       <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr"/>
       <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13383,15 +13909,17 @@
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="inlineStr"/>
       <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13439,15 +13967,17 @@
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr"/>
       <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13495,15 +14025,17 @@
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="inlineStr"/>
       <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13551,15 +14083,17 @@
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13607,15 +14141,17 @@
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr"/>
       <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13663,15 +14199,17 @@
         </is>
       </c>
       <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13715,15 +14253,17 @@
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
       <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13767,15 +14307,17 @@
         </is>
       </c>
       <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13819,15 +14361,17 @@
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="inlineStr"/>
       <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13866,20 +14410,22 @@
           <t>d7a</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
         </is>
       </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O255" t="inlineStr"/>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13918,20 +14464,22 @@
           <t>d7b</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
         </is>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr"/>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P256" t="inlineStr"/>
       <c r="Q256" t="inlineStr"/>
       <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13970,20 +14518,22 @@
           <t>d7c</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
         </is>
       </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O257" t="inlineStr"/>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P257" t="inlineStr"/>
       <c r="Q257" t="inlineStr"/>
       <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14026,20 +14576,22 @@
           <t>d7d</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
         </is>
       </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14086,20 +14638,22 @@
           <t>d7d1</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr">
         <is>
           <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
         </is>
       </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P259" t="inlineStr"/>
       <c r="Q259" t="inlineStr"/>
       <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14138,20 +14692,22 @@
           <t>d7d2</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
         </is>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr"/>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P260" t="inlineStr"/>
       <c r="Q260" t="inlineStr"/>
       <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14190,20 +14746,22 @@
           <t>d7e1</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
         <is>
           <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
         </is>
       </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr"/>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="inlineStr"/>
       <c r="R261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14242,20 +14800,22 @@
           <t>d7e2</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
         </is>
       </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="inlineStr"/>
       <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14302,20 +14862,22 @@
           <t>d7f1</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
         </is>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr"/>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14354,20 +14916,22 @@
           <t>d7f2</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
         </is>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="inlineStr"/>
       <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14410,20 +14974,22 @@
           <t>d8</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
         </is>
       </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="inlineStr"/>
       <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14462,20 +15028,22 @@
           <t>d8a</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
         </is>
       </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O266" t="inlineStr"/>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14514,20 +15082,22 @@
           <t>d8b</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
         </is>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P267" t="inlineStr"/>
       <c r="Q267" t="inlineStr"/>
       <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14566,20 +15136,22 @@
           <t>d8b1</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
         </is>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P268" t="inlineStr"/>
       <c r="Q268" t="inlineStr"/>
       <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14618,20 +15190,22 @@
           <t>d8c</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
         </is>
       </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="inlineStr"/>
       <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14678,20 +15252,22 @@
           <t>d8d_health_insurance</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
         </is>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr"/>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="inlineStr"/>
       <c r="R270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14738,20 +15314,22 @@
           <t>d8d_paid_time_off</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
         </is>
       </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O271" t="inlineStr"/>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="inlineStr"/>
       <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14798,20 +15376,22 @@
           <t>d8d_benefit_plan</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
         </is>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="inlineStr"/>
       <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14858,20 +15438,22 @@
           <t>d8d_retirement_plan</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
         </is>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr"/>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="inlineStr"/>
       <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14910,20 +15492,22 @@
           <t>d8e</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
         </is>
       </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P274" t="inlineStr"/>
       <c r="Q274" t="inlineStr"/>
       <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14970,20 +15554,22 @@
           <t>d9</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P275" t="inlineStr"/>
       <c r="Q275" t="inlineStr"/>
       <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15030,20 +15616,22 @@
           <t>d9a_private</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P276" t="inlineStr"/>
       <c r="Q276" t="inlineStr"/>
       <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15090,20 +15678,22 @@
           <t>d9a_medicare</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
         </is>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P277" t="inlineStr"/>
       <c r="Q277" t="inlineStr"/>
       <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15150,20 +15740,22 @@
           <t>d9a_medigap</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
         </is>
       </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P278" t="inlineStr"/>
       <c r="Q278" t="inlineStr"/>
       <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15210,20 +15802,22 @@
           <t>d9a_medicaid</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
         </is>
       </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P279" t="inlineStr"/>
       <c r="Q279" t="inlineStr"/>
       <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15270,20 +15864,22 @@
           <t>d9a_schip</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
         </is>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P280" t="inlineStr"/>
       <c r="Q280" t="inlineStr"/>
       <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15330,20 +15926,22 @@
           <t>d9a_military</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
         </is>
       </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr"/>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P281" t="inlineStr"/>
       <c r="Q281" t="inlineStr"/>
       <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15390,20 +15988,22 @@
           <t>d9a_indian</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
         </is>
       </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr"/>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P282" t="inlineStr"/>
       <c r="Q282" t="inlineStr"/>
       <c r="R282" t="inlineStr"/>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15450,20 +16050,22 @@
           <t>d9a_state</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
         </is>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P283" t="inlineStr"/>
       <c r="Q283" t="inlineStr"/>
       <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15510,20 +16112,22 @@
           <t>d9a_other_government</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
         </is>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P284" t="inlineStr"/>
       <c r="Q284" t="inlineStr"/>
       <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15570,20 +16174,22 @@
           <t>d9a_single_service</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
         </is>
       </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P285" t="inlineStr"/>
       <c r="Q285" t="inlineStr"/>
       <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15630,20 +16236,22 @@
           <t>d9a_dont_know</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
         </is>
       </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P286" t="inlineStr"/>
       <c r="Q286" t="inlineStr"/>
       <c r="R286" t="inlineStr"/>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15682,20 +16290,22 @@
           <t>d10</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
         </is>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O287" t="inlineStr"/>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="inlineStr"/>
       <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15734,20 +16344,22 @@
           <t>d11a</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
         </is>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O288" t="inlineStr"/>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr"/>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15786,20 +16398,22 @@
           <t>d11b</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
         </is>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O289" t="inlineStr"/>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="inlineStr"/>
       <c r="R289" t="inlineStr"/>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15838,20 +16452,22 @@
           <t>d11c</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
         </is>
       </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O290" t="inlineStr"/>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="inlineStr"/>
       <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15890,20 +16506,22 @@
           <t>d11d</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
         </is>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr"/>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="inlineStr"/>
       <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15942,20 +16560,22 @@
           <t>d11e</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
         </is>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr"/>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr"/>
       <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15994,20 +16614,22 @@
           <t>d11f</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
         </is>
       </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16046,20 +16668,22 @@
           <t>d11g</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O294" t="inlineStr"/>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
       <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16098,20 +16722,22 @@
           <t>d11h</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
         </is>
       </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O295" t="inlineStr"/>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P295" t="inlineStr"/>
       <c r="Q295" t="inlineStr"/>
       <c r="R295" t="inlineStr"/>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16150,20 +16776,22 @@
           <t>d11i</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
         </is>
       </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O296" t="inlineStr"/>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="inlineStr"/>
       <c r="R296" t="inlineStr"/>
+      <c r="S296" t="inlineStr"/>
+      <c r="T296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16202,20 +16830,22 @@
           <t>d11j</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
         </is>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O297" t="inlineStr"/>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P297" t="inlineStr"/>
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="inlineStr"/>
+      <c r="S297" t="inlineStr"/>
+      <c r="T297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16262,20 +16892,22 @@
           <t>o3</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
         </is>
       </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O298" t="inlineStr"/>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P298" t="inlineStr"/>
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="inlineStr"/>
+      <c r="S298" t="inlineStr"/>
+      <c r="T298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16322,20 +16954,22 @@
           <t>o3a</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
         </is>
       </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr"/>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P299" t="inlineStr"/>
       <c r="Q299" t="inlineStr"/>
       <c r="R299" t="inlineStr"/>
+      <c r="S299" t="inlineStr"/>
+      <c r="T299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16382,20 +17016,22 @@
           <t>o3b</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
         </is>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr"/>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P300" t="inlineStr"/>
       <c r="Q300" t="inlineStr"/>
       <c r="R300" t="inlineStr"/>
+      <c r="S300" t="inlineStr"/>
+      <c r="T300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16439,15 +17075,17 @@
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="inlineStr"/>
       <c r="R301" t="inlineStr"/>
+      <c r="S301" t="inlineStr"/>
+      <c r="T301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16491,15 +17129,17 @@
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P302" t="inlineStr"/>
       <c r="Q302" t="inlineStr"/>
       <c r="R302" t="inlineStr"/>
+      <c r="S302" t="inlineStr"/>
+      <c r="T302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16543,15 +17183,17 @@
         </is>
       </c>
       <c r="M303" t="inlineStr"/>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr"/>
+      <c r="T303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16595,15 +17237,17 @@
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr"/>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="inlineStr"/>
       <c r="R304" t="inlineStr"/>
+      <c r="S304" t="inlineStr"/>
+      <c r="T304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16647,15 +17291,17 @@
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="inlineStr"/>
       <c r="R305" t="inlineStr"/>
+      <c r="S305" t="inlineStr"/>
+      <c r="T305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16699,15 +17345,17 @@
         </is>
       </c>
       <c r="M306" t="inlineStr"/>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="inlineStr"/>
       <c r="R306" t="inlineStr"/>
+      <c r="S306" t="inlineStr"/>
+      <c r="T306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16751,15 +17399,17 @@
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P307" t="inlineStr"/>
       <c r="Q307" t="inlineStr"/>
       <c r="R307" t="inlineStr"/>
+      <c r="S307" t="inlineStr"/>
+      <c r="T307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16803,15 +17453,17 @@
         </is>
       </c>
       <c r="M308" t="inlineStr"/>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P308" t="inlineStr"/>
       <c r="Q308" t="inlineStr"/>
       <c r="R308" t="inlineStr"/>
+      <c r="S308" t="inlineStr"/>
+      <c r="T308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16855,15 +17507,17 @@
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P309" t="inlineStr"/>
       <c r="Q309" t="inlineStr"/>
       <c r="R309" t="inlineStr"/>
+      <c r="S309" t="inlineStr"/>
+      <c r="T309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16907,15 +17561,17 @@
         </is>
       </c>
       <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P310" t="inlineStr"/>
       <c r="Q310" t="inlineStr"/>
       <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16959,15 +17615,17 @@
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr"/>
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="inlineStr"/>
       <c r="R311" t="inlineStr"/>
+      <c r="S311" t="inlineStr"/>
+      <c r="T311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17011,15 +17669,17 @@
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="inlineStr"/>
       <c r="R312" t="inlineStr"/>
+      <c r="S312" t="inlineStr"/>
+      <c r="T312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17063,15 +17723,17 @@
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="inlineStr"/>
       <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17115,15 +17777,17 @@
         </is>
       </c>
       <c r="M314" t="inlineStr"/>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr"/>
+      <c r="N314" t="inlineStr"/>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="inlineStr"/>
       <c r="R314" t="inlineStr"/>
+      <c r="S314" t="inlineStr"/>
+      <c r="T314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17167,15 +17831,17 @@
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr"/>
+      <c r="N315" t="inlineStr"/>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P315" t="inlineStr"/>
       <c r="Q315" t="inlineStr"/>
       <c r="R315" t="inlineStr"/>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17219,15 +17885,17 @@
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr"/>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P316" t="inlineStr"/>
       <c r="Q316" t="inlineStr"/>
       <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17271,15 +17939,17 @@
         </is>
       </c>
       <c r="M317" t="inlineStr"/>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="inlineStr"/>
       <c r="R317" t="inlineStr"/>
+      <c r="S317" t="inlineStr"/>
+      <c r="T317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17323,15 +17993,17 @@
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr"/>
+      <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="inlineStr"/>
       <c r="R318" t="inlineStr"/>
+      <c r="S318" t="inlineStr"/>
+      <c r="T318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17375,15 +18047,17 @@
         </is>
       </c>
       <c r="M319" t="inlineStr"/>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr"/>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P319" t="inlineStr"/>
       <c r="Q319" t="inlineStr"/>
       <c r="R319" t="inlineStr"/>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17427,15 +18101,17 @@
         </is>
       </c>
       <c r="M320" t="inlineStr"/>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr"/>
+      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="inlineStr"/>
       <c r="R320" t="inlineStr"/>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17479,15 +18155,17 @@
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr"/>
+      <c r="N321" t="inlineStr"/>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P321" t="inlineStr"/>
       <c r="Q321" t="inlineStr"/>
       <c r="R321" t="inlineStr"/>
+      <c r="S321" t="inlineStr"/>
+      <c r="T321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17531,15 +18209,17 @@
         </is>
       </c>
       <c r="M322" t="inlineStr"/>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr"/>
+      <c r="N322" t="inlineStr"/>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P322" t="inlineStr"/>
       <c r="Q322" t="inlineStr"/>
       <c r="R322" t="inlineStr"/>
+      <c r="S322" t="inlineStr"/>
+      <c r="T322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17583,15 +18263,17 @@
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr"/>
+      <c r="N323" t="inlineStr"/>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P323" t="inlineStr"/>
       <c r="Q323" t="inlineStr"/>
       <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17635,15 +18317,17 @@
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr"/>
+      <c r="N324" t="inlineStr"/>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P324" t="inlineStr"/>
       <c r="Q324" t="inlineStr"/>
       <c r="R324" t="inlineStr"/>
+      <c r="S324" t="inlineStr"/>
+      <c r="T324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17687,15 +18371,17 @@
         </is>
       </c>
       <c r="M325" t="inlineStr"/>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P325" t="inlineStr"/>
       <c r="Q325" t="inlineStr"/>
       <c r="R325" t="inlineStr"/>
+      <c r="S325" t="inlineStr"/>
+      <c r="T325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -17739,15 +18425,17 @@
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr"/>
+      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P326" t="inlineStr"/>
       <c r="Q326" t="inlineStr"/>
       <c r="R326" t="inlineStr"/>
+      <c r="S326" t="inlineStr"/>
+      <c r="T326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -17791,15 +18479,17 @@
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr"/>
+      <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P327" t="inlineStr"/>
       <c r="Q327" t="inlineStr"/>
       <c r="R327" t="inlineStr"/>
+      <c r="S327" t="inlineStr"/>
+      <c r="T327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -17843,15 +18533,17 @@
         </is>
       </c>
       <c r="M328" t="inlineStr"/>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="inlineStr"/>
       <c r="R328" t="inlineStr"/>
+      <c r="S328" t="inlineStr"/>
+      <c r="T328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -17895,15 +18587,17 @@
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr"/>
+      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="inlineStr"/>
       <c r="R329" t="inlineStr"/>
+      <c r="S329" t="inlineStr"/>
+      <c r="T329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -17947,15 +18641,17 @@
         </is>
       </c>
       <c r="M330" t="inlineStr"/>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr"/>
+      <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="inlineStr"/>
       <c r="R330" t="inlineStr"/>
+      <c r="S330" t="inlineStr"/>
+      <c r="T330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -17995,15 +18691,17 @@
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P331" t="inlineStr"/>
       <c r="Q331" t="inlineStr"/>
-      <c r="R331" t="n">
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="n">
         <v>10</v>
       </c>
     </row>
@@ -18048,20 +18746,22 @@
           <t>r1a</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr">
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr"/>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P332" t="inlineStr"/>
       <c r="Q332" t="inlineStr"/>
       <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18104,20 +18804,22 @@
           <t>r1b</t>
         </is>
       </c>
-      <c r="M333" t="inlineStr">
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr"/>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P333" t="inlineStr"/>
       <c r="Q333" t="inlineStr"/>
       <c r="R333" t="inlineStr"/>
+      <c r="S333" t="inlineStr"/>
+      <c r="T333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18160,20 +18862,22 @@
           <t>r1c</t>
         </is>
       </c>
-      <c r="M334" t="inlineStr">
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr"/>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P334" t="inlineStr"/>
       <c r="Q334" t="inlineStr"/>
       <c r="R334" t="inlineStr"/>
+      <c r="S334" t="inlineStr"/>
+      <c r="T334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18216,20 +18920,22 @@
           <t>r1d</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr">
+      <c r="M335" t="inlineStr"/>
+      <c r="N335" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr"/>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P335" t="inlineStr"/>
       <c r="Q335" t="inlineStr"/>
       <c r="R335" t="inlineStr"/>
+      <c r="S335" t="inlineStr"/>
+      <c r="T335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18272,20 +18978,22 @@
           <t>r1g</t>
         </is>
       </c>
-      <c r="M336" t="inlineStr">
+      <c r="M336" t="inlineStr"/>
+      <c r="N336" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr"/>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P336" t="inlineStr"/>
       <c r="Q336" t="inlineStr"/>
       <c r="R336" t="inlineStr"/>
+      <c r="S336" t="inlineStr"/>
+      <c r="T336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18328,20 +19036,22 @@
           <t>r1h</t>
         </is>
       </c>
-      <c r="M337" t="inlineStr">
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr"/>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="inlineStr"/>
       <c r="R337" t="inlineStr"/>
+      <c r="S337" t="inlineStr"/>
+      <c r="T337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18384,20 +19094,22 @@
           <t>r1j</t>
         </is>
       </c>
-      <c r="M338" t="inlineStr">
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr"/>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr"/>
       <c r="R338" t="inlineStr"/>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18440,20 +19152,22 @@
           <t>r1k</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr">
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr"/>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="inlineStr"/>
       <c r="R339" t="inlineStr"/>
+      <c r="S339" t="inlineStr"/>
+      <c r="T339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18496,20 +19210,22 @@
           <t>r1m</t>
         </is>
       </c>
-      <c r="M340" t="inlineStr">
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O340" t="inlineStr"/>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="inlineStr"/>
       <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
+      <c r="T340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18552,20 +19268,22 @@
           <t>r1n</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr">
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr"/>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="inlineStr"/>
       <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr"/>
+      <c r="T341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18608,20 +19326,22 @@
           <t>r2a</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr">
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr"/>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="inlineStr"/>
       <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr"/>
+      <c r="T342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18664,20 +19384,22 @@
           <t>r2b</t>
         </is>
       </c>
-      <c r="M343" t="inlineStr">
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="inlineStr"/>
       <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr"/>
+      <c r="T343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -18724,20 +19446,22 @@
           <t>r3a</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr">
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P344" t="inlineStr"/>
       <c r="Q344" t="inlineStr"/>
       <c r="R344" t="inlineStr"/>
+      <c r="S344" t="inlineStr"/>
+      <c r="T344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -18784,20 +19508,22 @@
           <t>r3b</t>
         </is>
       </c>
-      <c r="M345" t="inlineStr">
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr"/>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="inlineStr"/>
       <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -18844,20 +19570,22 @@
           <t>r3c</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr">
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O346" t="inlineStr"/>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P346" t="inlineStr"/>
       <c r="Q346" t="inlineStr"/>
       <c r="R346" t="inlineStr"/>
+      <c r="S346" t="inlineStr"/>
+      <c r="T346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -18904,20 +19632,22 @@
           <t>r3d</t>
         </is>
       </c>
-      <c r="M347" t="inlineStr">
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O347" t="inlineStr"/>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="inlineStr"/>
       <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr"/>
+      <c r="T347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -18964,20 +19694,22 @@
           <t>r3e</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr">
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O348" t="inlineStr"/>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="inlineStr"/>
       <c r="R348" t="inlineStr"/>
+      <c r="S348" t="inlineStr"/>
+      <c r="T348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19024,20 +19756,22 @@
           <t>r3f</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr">
+      <c r="M349" t="inlineStr"/>
+      <c r="N349" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr"/>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="inlineStr"/>
       <c r="R349" t="inlineStr"/>
+      <c r="S349" t="inlineStr"/>
+      <c r="T349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19080,20 +19814,22 @@
           <t>r3a_first_dx</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr">
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O350" t="inlineStr"/>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="inlineStr"/>
       <c r="R350" t="inlineStr"/>
+      <c r="S350" t="inlineStr"/>
+      <c r="T350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19136,20 +19872,22 @@
           <t>r3b_first_dx</t>
         </is>
       </c>
-      <c r="M351" t="inlineStr">
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr"/>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P351" t="inlineStr"/>
       <c r="Q351" t="inlineStr"/>
       <c r="R351" t="inlineStr"/>
+      <c r="S351" t="inlineStr"/>
+      <c r="T351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19192,20 +19930,22 @@
           <t>r3c_first_dx</t>
         </is>
       </c>
-      <c r="M352" t="inlineStr">
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr"/>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr"/>
       <c r="R352" t="inlineStr"/>
+      <c r="S352" t="inlineStr"/>
+      <c r="T352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19248,20 +19988,22 @@
           <t>r3d_first_dx</t>
         </is>
       </c>
-      <c r="M353" t="inlineStr">
+      <c r="M353" t="inlineStr"/>
+      <c r="N353" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr"/>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="inlineStr"/>
       <c r="R353" t="inlineStr"/>
+      <c r="S353" t="inlineStr"/>
+      <c r="T353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19304,20 +20046,22 @@
           <t>r3e_first_dx</t>
         </is>
       </c>
-      <c r="M354" t="inlineStr">
+      <c r="M354" t="inlineStr"/>
+      <c r="N354" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O354" t="inlineStr"/>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P354" t="inlineStr"/>
       <c r="Q354" t="inlineStr"/>
       <c r="R354" t="inlineStr"/>
+      <c r="S354" t="inlineStr"/>
+      <c r="T354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19360,20 +20104,22 @@
           <t>r3f_first_dx</t>
         </is>
       </c>
-      <c r="M355" t="inlineStr">
+      <c r="M355" t="inlineStr"/>
+      <c r="N355" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
         </is>
       </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>table-schema-time-points</t>
-        </is>
-      </c>
-      <c r="O355" t="inlineStr"/>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
       <c r="P355" t="inlineStr"/>
       <c r="Q355" t="inlineStr"/>
       <c r="R355" t="inlineStr"/>
+      <c r="S355" t="inlineStr"/>
+      <c r="T355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,8 @@
     <col width="166.5" customWidth="1" min="2" max="2"/>
     <col width="77" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="929" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,6 +473,11 @@
       <c r="F1" s="2" t="inlineStr">
         <is>
           <t>primaryKey</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>custom</t>
         </is>
       </c>
     </row>
@@ -509,6 +515,11 @@
           <t>jdc_person_id</t>
         </is>
       </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -544,6 +555,11 @@
           <t>jdc_person_id</t>
         </is>
       </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -580,6 +596,11 @@
 visit_number</t>
         </is>
       </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -614,6 +635,11 @@
         <is>
           <t>jdc_person_id,
 visit_number</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -4472,9 +4498,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
@@ -7038,7 +7062,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A number that identifies the visit or timepoint of data collection (baseline=1 and each subsequent follow up is 2 or greater). The main purpose of this field is to provide a unique identifier within each participant. See `visit_month` for a label of the visit.</t>
+          <t xml:space="preserve">A number that identifies the visit or timepoint of data collection
+(baseline=1 and each subsequent follow up is 2 or greater). 
+The main purpose of this field is to provide the sequential number of visits. For example, if a study has 
+a Baseline and 6 and 12 month follow up, `visit_number` would be mapped to `visit_month` as 
+1=Baseline,2=6 month follow up, 3=12 month follow up.
+</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -7133,7 +7162,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>shifted_visit_date</t>
+          <t>shifted_visit_dt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7148,20 +7177,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>This is the date of the visit (ie time point) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
+          <t xml:space="preserve">This is the date of the visit (ie time point of survey administration)
+after shifting by a random number 182 days before or 182 days after the actual
+visit date. The shifting is done on the individual level which retains the time
+interval between visits (and allows calculations of days between time points
+or other date fields which are shifted by the same number of days). To avoid
+issues with type conversion errors, the date is of type integer
+</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>shifted_visit_dt</t>
+          <t>shifted_visit_date</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -7172,7 +7205,11 @@
         </is>
       </c>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>20220101|20240531</t>
+        </is>
+      </c>
       <c r="R117" t="inlineStr">
         <is>
           <t>%Y%m%d</t>

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,8 +444,9 @@
     <col width="166.5" customWidth="1" min="2" max="2"/>
     <col width="77" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="929" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="964" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,6 +477,11 @@
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>custom</t>
         </is>
@@ -517,7 +523,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Client', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -557,7 +568,12 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Staff', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Staff', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
@@ -639,7 +660,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'jcoin:participantType': 'Client', 'jcoin:missingValuesDescription': "\n**Below are extended descriptions of each `missingValue` (ie reserve code):**\n\n  - Don't know: This code indicates that the respondent did not have the knowledge or information required to answer the question.\n  - Refused: This code signifies that the respondent actively chose not to answer the question, despite being capable of providing a response.\n  - Left blank: This code indicates that the question was intentionally left unanswered by the respondent.\n  - Legitimately skipped: This code is used when the question was intentionally skipped due to its inapplicability or irrelevance to the respondent's situation.\n  - Not collected: This code indicates that the data for the question was not collected or recorded by the survey administrator or interviewer.\n  - Missing: This code signifies that the data for the question is missing without any clear reason or explanation.\n"}</t>
         </is>
       </c>
     </row>
